--- a/patient_data/Table2_Supplemental3_Patient-Data.xlsx
+++ b/patient_data/Table2_Supplemental3_Patient-Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bcmedu-my.sharepoint.com/personal/u244834_bcm_edu/Documents/BCM/Projects/Autosomal Dominant Predictor of IRDs/manuscript/GitHub/patient_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="231" documentId="11_23F921EDE76B8A323B2D4C8F9D58664A6CAA8E4F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50B415CD-921A-43DB-8998-25F68BF79F16}"/>
+  <xr:revisionPtr revIDLastSave="234" documentId="11_23F921EDE76B8A323B2D4C8F9D58664A6CAA8E4F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DEE0BF3B-E51C-40CB-BCF0-534E008F28ED}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="7200" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,9 +56,6 @@
     <t>MutScore</t>
   </si>
   <si>
-    <t>BayesDel</t>
-  </si>
-  <si>
     <t>MetaRNN</t>
   </si>
   <si>
@@ -567,6 +564,9 @@
   </si>
   <si>
     <t>Novel with same position reported previously, Keen et al, 1991 (PMID: 1765377)</t>
+  </si>
+  <si>
+    <t>BayesDel_addAF</t>
   </si>
 </sst>
 </file>
@@ -625,85 +625,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="57">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="19">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -831,326 +766,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1517,7 +1132,7 @@
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1529,7 +1144,7 @@
     <col min="5" max="5" width="19" customWidth="1"/>
     <col min="6" max="6" width="35.28515625" customWidth="1"/>
     <col min="7" max="7" width="15.42578125" customWidth="1"/>
-    <col min="8" max="8" width="25.5703125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="25.5703125" customWidth="1"/>
     <col min="9" max="9" width="22.7109375" customWidth="1"/>
     <col min="10" max="10" width="15.42578125" customWidth="1"/>
     <col min="12" max="12" width="11" customWidth="1"/>
@@ -1559,8 +1174,8 @@
       <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>174</v>
+      <c r="H1" s="1" t="s">
+        <v>173</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>8</v>
@@ -1568,220 +1183,220 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G2" t="s">
-        <v>143</v>
-      </c>
-      <c r="H2" s="5">
+        <v>142</v>
+      </c>
+      <c r="H2">
         <v>4.0625599999999996E-6</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G3" t="s">
-        <v>143</v>
-      </c>
-      <c r="H3" s="5">
+        <v>142</v>
+      </c>
+      <c r="H3">
         <v>4.0625599999999996E-6</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G4" t="s">
-        <v>145</v>
-      </c>
-      <c r="H4" s="5">
+        <v>144</v>
+      </c>
+      <c r="H4">
         <v>0</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>166</v>
+      <c r="I4" s="2" t="s">
+        <v>165</v>
       </c>
       <c r="J4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G5" t="s">
-        <v>146</v>
-      </c>
-      <c r="H5" s="5">
+        <v>145</v>
+      </c>
+      <c r="H5">
         <v>0</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>169</v>
+      <c r="I5" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="J5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G6" t="s">
-        <v>143</v>
-      </c>
-      <c r="H6" s="5">
+        <v>142</v>
+      </c>
+      <c r="H6">
         <v>0</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>169</v>
+      <c r="I6" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="J6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I9" s="3"/>
+      <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I10" s="3"/>
+      <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I11" s="3"/>
+      <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I12" s="3"/>
+      <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I13" s="3"/>
+      <c r="I13" s="2"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I16" s="3"/>
+      <c r="I16" s="2"/>
     </row>
     <row r="17" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I17" s="3"/>
+      <c r="I17" s="2"/>
     </row>
     <row r="18" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I18" s="3"/>
+      <c r="I18" s="2"/>
     </row>
     <row r="19" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I19" s="3"/>
+      <c r="I19" s="2"/>
     </row>
     <row r="20" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I20" s="3"/>
+      <c r="I20" s="2"/>
     </row>
     <row r="21" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I21" s="3"/>
+      <c r="I21" s="2"/>
     </row>
     <row r="22" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I22" s="3"/>
+      <c r="I22" s="2"/>
     </row>
     <row r="23" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I23" s="3"/>
+      <c r="I23" s="2"/>
     </row>
     <row r="25" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I25" s="3"/>
+      <c r="I25" s="2"/>
     </row>
     <row r="26" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I26" s="3"/>
+      <c r="I26" s="2"/>
     </row>
     <row r="27" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I27" s="3"/>
+      <c r="I27" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1793,7 +1408,7 @@
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1806,11 +1421,11 @@
     <col min="6" max="6" width="19" customWidth="1"/>
     <col min="7" max="7" width="35.28515625" customWidth="1"/>
     <col min="8" max="8" width="15.42578125" customWidth="1"/>
-    <col min="9" max="9" width="25.5703125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="25.5703125" customWidth="1"/>
     <col min="10" max="10" width="22.7109375" customWidth="1"/>
     <col min="11" max="11" width="15.42578125" customWidth="1"/>
     <col min="12" max="12" width="11" customWidth="1"/>
-    <col min="13" max="13" width="13.28515625" customWidth="1"/>
+    <col min="13" max="13" width="17.42578125" customWidth="1"/>
     <col min="14" max="14" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1839,8 +1454,8 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>174</v>
+      <c r="I1" s="1" t="s">
+        <v>173</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>8</v>
@@ -1852,51 +1467,51 @@
         <v>10</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H2" t="s">
-        <v>153</v>
-      </c>
-      <c r="I2" s="5">
+        <v>152</v>
+      </c>
+      <c r="I2">
         <v>8.1260499999999999E-6</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L2">
         <v>0.74</v>
@@ -1919,37 +1534,37 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H3" t="s">
-        <v>155</v>
-      </c>
-      <c r="I3" s="5">
+        <v>154</v>
+      </c>
+      <c r="I3">
         <v>0</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L3">
         <v>0.47299999999999998</v>
@@ -1972,37 +1587,37 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H4" t="s">
-        <v>143</v>
-      </c>
-      <c r="I4" s="5">
+        <v>142</v>
+      </c>
+      <c r="I4">
         <v>4.0625599999999996E-6</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L4">
         <v>0.84699999999999998</v>
@@ -2025,37 +1640,37 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H5" t="s">
-        <v>143</v>
-      </c>
-      <c r="I5" s="5">
+        <v>142</v>
+      </c>
+      <c r="I5">
         <v>4.0625599999999996E-6</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L5">
         <v>0.84699999999999998</v>
@@ -2078,37 +1693,37 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H6" t="s">
-        <v>145</v>
-      </c>
-      <c r="I6" s="5">
+        <v>144</v>
+      </c>
+      <c r="I6">
         <v>0</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>166</v>
+      <c r="J6" s="2" t="s">
+        <v>165</v>
       </c>
       <c r="K6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -2131,37 +1746,37 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H7" t="s">
-        <v>147</v>
-      </c>
-      <c r="I7" s="5">
+        <v>146</v>
+      </c>
+      <c r="I7">
         <v>0</v>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>167</v>
+      <c r="J7" s="2" t="s">
+        <v>166</v>
       </c>
       <c r="K7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L7">
         <v>0.91300000000000003</v>
@@ -2184,37 +1799,37 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H8" t="s">
-        <v>148</v>
-      </c>
-      <c r="I8" s="5">
+        <v>147</v>
+      </c>
+      <c r="I8">
         <v>0</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>168</v>
+      <c r="J8" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="K8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L8">
         <v>0.64500000000000002</v>
@@ -2237,37 +1852,37 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H9" t="s">
-        <v>145</v>
-      </c>
-      <c r="I9" s="5">
+        <v>144</v>
+      </c>
+      <c r="I9">
         <v>0</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>165</v>
+      <c r="J9" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="K9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L9">
         <v>0.997</v>
@@ -2290,34 +1905,34 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H10" t="s">
-        <v>141</v>
-      </c>
-      <c r="I10" s="5">
+        <v>140</v>
+      </c>
+      <c r="I10">
         <v>0</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>166</v>
+      <c r="J10" s="2" t="s">
+        <v>165</v>
       </c>
       <c r="K10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L10">
         <v>0.88100000000000001</v>
@@ -2340,34 +1955,34 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H11" t="s">
-        <v>142</v>
-      </c>
-      <c r="I11" s="5">
+        <v>141</v>
+      </c>
+      <c r="I11">
         <v>0</v>
       </c>
-      <c r="J11" s="3" t="s">
-        <v>166</v>
+      <c r="J11" s="2" t="s">
+        <v>165</v>
       </c>
       <c r="K11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L11">
         <v>0.94399999999999995</v>
@@ -2390,37 +2005,37 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H12" t="s">
-        <v>144</v>
-      </c>
-      <c r="I12" s="5">
+        <v>143</v>
+      </c>
+      <c r="I12">
         <v>0</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>169</v>
+      <c r="J12" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="K12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L12">
         <v>0.80300000000000005</v>
@@ -2443,34 +2058,34 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H13" t="s">
-        <v>140</v>
-      </c>
-      <c r="I13" s="5">
+        <v>139</v>
+      </c>
+      <c r="I13">
         <v>0</v>
       </c>
-      <c r="J13" s="3" t="s">
-        <v>167</v>
+      <c r="J13" s="2" t="s">
+        <v>166</v>
       </c>
       <c r="K13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L13">
         <v>0.96699999999999997</v>
@@ -2493,37 +2108,37 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H14" t="s">
-        <v>146</v>
-      </c>
-      <c r="I14" s="5">
+        <v>145</v>
+      </c>
+      <c r="I14">
         <v>0</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>169</v>
+      <c r="J14" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="K14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L14">
         <v>0.88300000000000001</v>
@@ -2546,37 +2161,37 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H15" t="s">
-        <v>149</v>
-      </c>
-      <c r="I15" s="5">
+        <v>148</v>
+      </c>
+      <c r="I15">
         <v>0</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>169</v>
+      <c r="J15" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="K15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L15">
         <v>0.60099999999999998</v>
@@ -2599,37 +2214,37 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H16" t="s">
-        <v>154</v>
-      </c>
-      <c r="I16" s="5">
+        <v>153</v>
+      </c>
+      <c r="I16">
         <v>5.2803899999999998E-5</v>
       </c>
-      <c r="J16" s="3" t="s">
-        <v>168</v>
+      <c r="J16" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="K16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L16">
         <v>0.85299999999999998</v>
@@ -2652,34 +2267,34 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H17" t="s">
-        <v>141</v>
-      </c>
-      <c r="I17" s="5">
+        <v>140</v>
+      </c>
+      <c r="I17">
         <v>0</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>165</v>
+      <c r="J17" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="K17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L17">
         <v>0.78500000000000003</v>
@@ -2702,37 +2317,37 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H18" t="s">
-        <v>141</v>
-      </c>
-      <c r="I18" s="5">
+        <v>140</v>
+      </c>
+      <c r="I18">
         <v>1.21945E-5</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>166</v>
+      <c r="J18" s="2" t="s">
+        <v>165</v>
       </c>
       <c r="K18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L18">
         <v>0.95</v>
@@ -2755,37 +2370,37 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H19" t="s">
-        <v>158</v>
-      </c>
-      <c r="I19" s="5">
+        <v>157</v>
+      </c>
+      <c r="I19">
         <v>4.0768100000000004E-6</v>
       </c>
-      <c r="J19" s="3" t="s">
-        <v>169</v>
+      <c r="J19" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="K19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L19">
         <v>0.83</v>
@@ -2808,37 +2423,37 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H20" t="s">
-        <v>150</v>
-      </c>
-      <c r="I20" s="5">
+        <v>149</v>
+      </c>
+      <c r="I20">
         <v>1.2316200000000001E-5</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>166</v>
+      <c r="J20" s="2" t="s">
+        <v>165</v>
       </c>
       <c r="K20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L20">
         <v>0.879</v>
@@ -2861,37 +2476,37 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H21" t="s">
-        <v>151</v>
-      </c>
-      <c r="I21" s="5">
+        <v>150</v>
+      </c>
+      <c r="I21">
         <v>8.1210999999999992E-6</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>167</v>
+      <c r="J21" s="2" t="s">
+        <v>166</v>
       </c>
       <c r="K21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L21">
         <v>0.85399999999999998</v>
@@ -2914,37 +2529,37 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H22" t="s">
-        <v>156</v>
-      </c>
-      <c r="I22" s="5">
+        <v>155</v>
+      </c>
+      <c r="I22">
         <v>0</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>169</v>
+      <c r="J22" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="K22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L22">
         <v>0.89700000000000002</v>
@@ -2967,37 +2582,37 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H23" t="s">
-        <v>157</v>
-      </c>
-      <c r="I23" s="5">
+        <v>156</v>
+      </c>
+      <c r="I23">
         <v>0</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>167</v>
+      <c r="J23" s="2" t="s">
+        <v>166</v>
       </c>
       <c r="K23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L23">
         <v>0.752</v>
@@ -3020,37 +2635,37 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H24" t="s">
-        <v>143</v>
-      </c>
-      <c r="I24" s="5">
+        <v>142</v>
+      </c>
+      <c r="I24">
         <v>0</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>169</v>
+      <c r="J24" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="K24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L24">
         <v>0.94199999999999995</v>
@@ -3073,37 +2688,37 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H25" t="s">
-        <v>152</v>
-      </c>
-      <c r="I25" s="5">
+        <v>151</v>
+      </c>
+      <c r="I25">
         <v>0</v>
       </c>
-      <c r="J25" s="3" t="s">
-        <v>170</v>
+      <c r="J25" s="2" t="s">
+        <v>169</v>
       </c>
       <c r="K25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L25">
         <v>0.83199999999999996</v>
@@ -3126,37 +2741,37 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C26" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H26" t="s">
-        <v>159</v>
-      </c>
-      <c r="I26" s="5">
+        <v>158</v>
+      </c>
+      <c r="I26">
         <v>0</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>167</v>
+      <c r="J26" s="2" t="s">
+        <v>166</v>
       </c>
       <c r="K26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L26">
         <v>0.89300000000000002</v>
@@ -3179,34 +2794,34 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H27" t="s">
-        <v>139</v>
-      </c>
-      <c r="I27" s="5">
+        <v>138</v>
+      </c>
+      <c r="I27">
         <v>0</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>169</v>
+      <c r="J27" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="K27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L27">
         <v>0.84199999999999997</v>
@@ -3243,68 +2858,68 @@
       <formula>0.558</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="M1:M1048576">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="greaterThan">
+      <formula>0.267</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="between">
+      <formula>0.014</formula>
+      <formula>0.266</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="lessThan">
+      <formula>0.013</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N1:N1048576">
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="greaterThan">
+      <formula>0.814</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="between">
+      <formula>0.61</formula>
+      <formula>0.813</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="lessThan">
+      <formula>0.609</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O1:O1048576">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="greaterThan">
+      <formula>0.975</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="between">
+      <formula>0.852</formula>
+      <formula>0.974</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="lessThan">
+      <formula>0.851</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P1:P1048576">
+    <cfRule type="cellIs" dxfId="6" priority="10" operator="between">
+      <formula>0.369</formula>
+      <formula>0.795</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="11" operator="greaterThan">
+      <formula>0.796</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="12" operator="between">
+      <formula>0.369</formula>
+      <formula>0.765</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="13" operator="lessThan">
+      <formula>0.368</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="Q1:Q1048576">
-    <cfRule type="cellIs" dxfId="15" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="14" operator="greaterThan">
       <formula>0.906</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="15" operator="between">
       <formula>0.464</formula>
       <formula>0.905</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="16" operator="lessThan">
       <formula>0.463</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P1:P1048576">
-    <cfRule type="cellIs" dxfId="12" priority="10" operator="between">
-      <formula>0.369</formula>
-      <formula>0.795</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="greaterThan">
-      <formula>0.796</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="between">
-      <formula>0.369</formula>
-      <formula>0.765</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="13" operator="lessThan">
-      <formula>0.368</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1048576">
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="greaterThan">
-      <formula>0.975</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="between">
-      <formula>0.852</formula>
-      <formula>0.974</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="lessThan">
-      <formula>0.851</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1048576">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="greaterThan">
-      <formula>0.814</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="between">
-      <formula>0.61</formula>
-      <formula>0.813</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="lessThan">
-      <formula>0.609</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1048576">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
-      <formula>0.267</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="between">
-      <formula>0.014</formula>
-      <formula>0.266</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="lessThan">
-      <formula>0.013</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/patient_data/Table2_Supplemental3_Patient-Data.xlsx
+++ b/patient_data/Table2_Supplemental3_Patient-Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bcmedu-my.sharepoint.com/personal/u244834_bcm_edu/Documents/BCM/Projects/Autosomal Dominant Predictor of IRDs/manuscript/GitHub/patient_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="234" documentId="11_23F921EDE76B8A323B2D4C8F9D58664A6CAA8E4F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DEE0BF3B-E51C-40CB-BCF0-534E008F28ED}"/>
+  <xr:revisionPtr revIDLastSave="241" documentId="11_23F921EDE76B8A323B2D4C8F9D58664A6CAA8E4F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8EACCF96-3D6D-4A02-8C49-D3A0681EA15F}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="7200" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="182">
   <si>
     <t>Proband ID</t>
   </si>
@@ -590,12 +590,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -625,7 +631,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -634,6 +640,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1132,7 +1139,7 @@
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1408,7 +1415,7 @@
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1910,6 +1917,9 @@
       <c r="B10" t="s">
         <v>41</v>
       </c>
+      <c r="C10" s="4" t="s">
+        <v>161</v>
+      </c>
       <c r="D10" t="s">
         <v>57</v>
       </c>
@@ -1960,6 +1970,9 @@
       <c r="B11" t="s">
         <v>42</v>
       </c>
+      <c r="C11" s="4" t="s">
+        <v>161</v>
+      </c>
       <c r="D11" t="s">
         <v>57</v>
       </c>
@@ -2063,6 +2076,9 @@
       <c r="B13" t="s">
         <v>40</v>
       </c>
+      <c r="C13" s="4" t="s">
+        <v>161</v>
+      </c>
       <c r="D13" t="s">
         <v>56</v>
       </c>
@@ -2272,6 +2288,9 @@
       <c r="B17" t="s">
         <v>40</v>
       </c>
+      <c r="C17" s="4" t="s">
+        <v>161</v>
+      </c>
       <c r="D17" t="s">
         <v>58</v>
       </c>
@@ -2798,6 +2817,9 @@
       </c>
       <c r="B27" t="s">
         <v>40</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>161</v>
       </c>
       <c r="D27" t="s">
         <v>55</v>

--- a/patient_data/Table2_Supplemental3_Patient-Data.xlsx
+++ b/patient_data/Table2_Supplemental3_Patient-Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bcmedu-my.sharepoint.com/personal/u244834_bcm_edu/Documents/BCM/Projects/Autosomal Dominant Predictor of IRDs/manuscript/GitHub/patient_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="241" documentId="11_23F921EDE76B8A323B2D4C8F9D58664A6CAA8E4F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8EACCF96-3D6D-4A02-8C49-D3A0681EA15F}"/>
+  <xr:revisionPtr revIDLastSave="243" documentId="11_23F921EDE76B8A323B2D4C8F9D58664A6CAA8E4F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1116EDC-A516-409F-BA8D-AE6545E55E9A}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="7200" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table_2" sheetId="3" r:id="rId1"/>
@@ -1139,27 +1139,27 @@
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" customWidth="1"/>
-    <col min="2" max="2" width="61.42578125" customWidth="1"/>
+    <col min="1" max="1" width="20.5546875" customWidth="1"/>
+    <col min="2" max="2" width="61.44140625" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" customWidth="1"/>
+    <col min="4" max="4" width="24.44140625" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="35.28515625" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" customWidth="1"/>
-    <col min="8" max="8" width="25.5703125" customWidth="1"/>
-    <col min="9" max="9" width="22.7109375" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="35.33203125" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" customWidth="1"/>
+    <col min="8" max="8" width="25.5546875" customWidth="1"/>
+    <col min="9" max="9" width="22.6640625" customWidth="1"/>
+    <col min="10" max="10" width="15.44140625" customWidth="1"/>
     <col min="12" max="12" width="11" customWidth="1"/>
-    <col min="13" max="13" width="13.28515625" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" customWidth="1"/>
+    <col min="13" max="13" width="13.33203125" customWidth="1"/>
+    <col min="14" max="14" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1197,7 +1197,7 @@
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -1229,12 +1229,12 @@
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
         <v>59</v>
@@ -1261,7 +1261,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1293,7 +1293,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -1325,7 +1325,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -1357,52 +1357,52 @@
         <v>180</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="I13" s="2"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I23" s="2"/>
     </row>
-    <row r="25" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I27" s="2"/>
     </row>
   </sheetData>
@@ -1415,28 +1415,28 @@
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" customWidth="1"/>
-    <col min="2" max="2" width="61.42578125" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="20.5546875" customWidth="1"/>
+    <col min="2" max="2" width="61.44140625" customWidth="1"/>
+    <col min="3" max="3" width="22.109375" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" customWidth="1"/>
+    <col min="5" max="5" width="24.44140625" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="35.28515625" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" customWidth="1"/>
-    <col min="9" max="9" width="25.5703125" customWidth="1"/>
-    <col min="10" max="10" width="22.7109375" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="35.33203125" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" customWidth="1"/>
+    <col min="9" max="9" width="25.5546875" customWidth="1"/>
+    <col min="10" max="10" width="22.6640625" customWidth="1"/>
+    <col min="11" max="11" width="15.44140625" customWidth="1"/>
     <col min="12" max="12" width="11" customWidth="1"/>
-    <col min="13" max="13" width="17.42578125" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" customWidth="1"/>
+    <col min="13" max="13" width="17.44140625" customWidth="1"/>
+    <col min="14" max="14" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1489,7 +1489,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -1539,7 +1539,7 @@
         <v>0.53800000000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -1592,7 +1592,7 @@
         <v>0.78200000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -1645,12 +1645,12 @@
         <v>0.91500000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
         <v>159</v>
@@ -1698,7 +1698,7 @@
         <v>0.91500000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>0.95499999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -1804,7 +1804,7 @@
         <v>0.86699999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -1857,7 +1857,7 @@
         <v>0.80200000000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -1910,7 +1910,7 @@
         <v>0.86299999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1963,7 +1963,7 @@
         <v>0.90900000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -2016,7 +2016,7 @@
         <v>0.94499999999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -2069,7 +2069,7 @@
         <v>0.94099999999999995</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -2122,7 +2122,7 @@
         <v>0.88600000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -2175,7 +2175,7 @@
         <v>0.95399999999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -2228,7 +2228,7 @@
         <v>0.94199999999999995</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -2281,7 +2281,7 @@
         <v>0.66900000000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -2334,7 +2334,7 @@
         <v>0.89600000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -2387,7 +2387,7 @@
         <v>0.96799999999999997</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -2440,7 +2440,7 @@
         <v>0.92400000000000004</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -2493,7 +2493,7 @@
         <v>0.98799999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -2546,7 +2546,7 @@
         <v>0.82899999999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>37</v>
       </c>
@@ -2599,7 +2599,7 @@
         <v>0.86799999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -2652,7 +2652,7 @@
         <v>0.85099999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -2705,7 +2705,7 @@
         <v>0.92600000000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -2758,7 +2758,7 @@
         <v>0.69399999999999995</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -2811,7 +2811,7 @@
         <v>0.92900000000000005</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>15</v>
       </c>

--- a/patient_data/Table2_Supplemental3_Patient-Data.xlsx
+++ b/patient_data/Table2_Supplemental3_Patient-Data.xlsx
@@ -1,27 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bcmedu-my.sharepoint.com/personal/u244834_bcm_edu/Documents/BCM/Projects/Autosomal Dominant Predictor of IRDs/manuscript/GitHub/patient_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="243" documentId="11_23F921EDE76B8A323B2D4C8F9D58664A6CAA8E4F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1116EDC-A516-409F-BA8D-AE6545E55E9A}"/>
+  <xr:revisionPtr revIDLastSave="345" documentId="11_23F921EDE76B8A323B2D4C8F9D58664A6CAA8E4F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A46F3754-F309-45F6-AD35-B781D7D3C005}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="7275" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table_2" sheetId="3" r:id="rId1"/>
     <sheet name="Supplemental_Table_3" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="188">
   <si>
     <t>Proband ID</t>
   </si>
@@ -101,9 +114,6 @@
     <t>MEP_986</t>
   </si>
   <si>
-    <t>MEP_1157</t>
-  </si>
-  <si>
     <t>MEP_1096</t>
   </si>
   <si>
@@ -116,9 +126,6 @@
     <t>MEP_724</t>
   </si>
   <si>
-    <t>NEI_450</t>
-  </si>
-  <si>
     <t>NEI_339</t>
   </si>
   <si>
@@ -128,9 +135,6 @@
     <t>RSA_RP_018</t>
   </si>
   <si>
-    <t>SRF_300_S111_L003</t>
-  </si>
-  <si>
     <t>SRF_30_S105_L002</t>
   </si>
   <si>
@@ -167,9 +171,6 @@
     <t>cone dystrophy</t>
   </si>
   <si>
-    <t>Autoimmune retinopathy vs other atypical retinal dystrophy</t>
-  </si>
-  <si>
     <t>Macular Dystrophy</t>
   </si>
   <si>
@@ -215,9 +216,6 @@
     <t>PRPF31</t>
   </si>
   <si>
-    <t>ROM1</t>
-  </si>
-  <si>
     <t>FBLN5</t>
   </si>
   <si>
@@ -263,9 +261,6 @@
     <t>NM_000180c.3070A&gt;G</t>
   </si>
   <si>
-    <t>NM_000180c.3079A&gt;T</t>
-  </si>
-  <si>
     <t>NM_000180c.2516C&gt;G</t>
   </si>
   <si>
@@ -278,18 +273,12 @@
     <t>NM_015629c.373C&gt;G</t>
   </si>
   <si>
-    <t>NM_000327c.406G&gt;A</t>
-  </si>
-  <si>
     <t>NM_006177c.62T&gt;C</t>
   </si>
   <si>
     <t>NM_006329c.1226C&gt;T</t>
   </si>
   <si>
-    <t>NM_014249c.1127C&gt;A</t>
-  </si>
-  <si>
     <t>NM_006329c.607A&gt;G</t>
   </si>
   <si>
@@ -338,9 +327,6 @@
     <t>p.Tyr1024Ala</t>
   </si>
   <si>
-    <t>p.Iso1027Phe</t>
-  </si>
-  <si>
     <t>p.Thr839Arg</t>
   </si>
   <si>
@@ -353,18 +339,12 @@
     <t>p.Leu125Val</t>
   </si>
   <si>
-    <t>p.Gly136Ser</t>
-  </si>
-  <si>
     <t>p.Phe21Ser</t>
   </si>
   <si>
     <t>p.Pro409Leu</t>
   </si>
   <si>
-    <t>p.Pro376Gln</t>
-  </si>
-  <si>
     <t>p.Arg203Gly</t>
   </si>
   <si>
@@ -419,9 +399,6 @@
     <t>Coiled coil domain</t>
   </si>
   <si>
-    <t>Lumenal Domain</t>
-  </si>
-  <si>
     <t>in between Glycyl lysine isopeptide (Lys-Gly) is crosslinker regions 20 &amp; 24</t>
   </si>
   <si>
@@ -464,9 +441,6 @@
     <t>95/97</t>
   </si>
   <si>
-    <t>84/97</t>
-  </si>
-  <si>
     <t>100/100</t>
   </si>
   <si>
@@ -476,15 +450,9 @@
     <t>86/86</t>
   </si>
   <si>
-    <t>86/88</t>
-  </si>
-  <si>
     <t>101/103</t>
   </si>
   <si>
-    <t>87/89</t>
-  </si>
-  <si>
     <t>98/98</t>
   </si>
   <si>
@@ -524,24 +492,15 @@
     <t>4 out of 6</t>
   </si>
   <si>
-    <t>1 out of 6</t>
-  </si>
-  <si>
     <t>5 out of 6</t>
   </si>
   <si>
-    <t>2 out of 6</t>
-  </si>
-  <si>
     <t>Birtel et al, 2018 (PMID: 29555955), Gliem et al, 2020 (PMID: 32646556)</t>
   </si>
   <si>
     <t>Zanolli et al, 2020 (PMID: 32141364)</t>
   </si>
   <si>
-    <t>Novel with same position reported previously, Li et al 2016 (PMID: 27284308)</t>
-  </si>
-  <si>
     <t>gnomAD Allele Frequency</t>
   </si>
   <si>
@@ -567,6 +526,78 @@
   </si>
   <si>
     <t>BayesDel_addAF</t>
+  </si>
+  <si>
+    <t>0.685-0.828</t>
+  </si>
+  <si>
+    <t>BayesDel_addAF_normal</t>
+  </si>
+  <si>
+    <t>0.781-0.837</t>
+  </si>
+  <si>
+    <t>0.8-0.904</t>
+  </si>
+  <si>
+    <t>0.88-0.988</t>
+  </si>
+  <si>
+    <t>0.836-0.948</t>
+  </si>
+  <si>
+    <t>0.811-0.977</t>
+  </si>
+  <si>
+    <t>0.899-0.933</t>
+  </si>
+  <si>
+    <t>0.876-0.945</t>
+  </si>
+  <si>
+    <t>0.918-0.963</t>
+  </si>
+  <si>
+    <t>0.898-0.971</t>
+  </si>
+  <si>
+    <t>0.796-0.889</t>
+  </si>
+  <si>
+    <t>0.86-0.967</t>
+  </si>
+  <si>
+    <t>0.848-0.937</t>
+  </si>
+  <si>
+    <t>0.755-0.922</t>
+  </si>
+  <si>
+    <t>0.852-0.976</t>
+  </si>
+  <si>
+    <t>0.844-0.933</t>
+  </si>
+  <si>
+    <t>0.89-0.964</t>
+  </si>
+  <si>
+    <t>0.897-0.993</t>
+  </si>
+  <si>
+    <t>0.831-0.946</t>
+  </si>
+  <si>
+    <t>0.829-0.94</t>
+  </si>
+  <si>
+    <t>0.862-0.902</t>
+  </si>
+  <si>
+    <t>0.851-0.941</t>
+  </si>
+  <si>
+    <t>Score IQR</t>
   </si>
 </sst>
 </file>
@@ -645,7 +676,1047 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="123">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1138,28 +2209,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A0D7620-AFD8-4C05-8C58-6365A200D24A}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5546875" customWidth="1"/>
-    <col min="2" max="2" width="61.44140625" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="2" max="2" width="61.42578125" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="24.44140625" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="35.33203125" customWidth="1"/>
-    <col min="7" max="7" width="15.44140625" customWidth="1"/>
-    <col min="8" max="8" width="25.5546875" customWidth="1"/>
-    <col min="9" max="9" width="22.6640625" customWidth="1"/>
-    <col min="10" max="10" width="15.44140625" customWidth="1"/>
+    <col min="6" max="6" width="35.28515625" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="8" max="8" width="25.5703125" customWidth="1"/>
+    <col min="9" max="9" width="22.7109375" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" customWidth="1"/>
     <col min="12" max="12" width="11" customWidth="1"/>
-    <col min="13" max="13" width="13.33203125" customWidth="1"/>
-    <col min="14" max="14" width="11.5546875" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1182,12 +2254,15 @@
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="L1" s="3"/>
@@ -1197,212 +2272,227 @@
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F2" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="G2" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="H2">
         <v>4.0625599999999996E-6</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="J2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+      <c r="K2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E3" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F3" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="G3" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="H3">
         <v>4.0625599999999996E-6</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="J3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+      <c r="K3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E4" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F4" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="G4" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="J4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+      <c r="K4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E5" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F5" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="G5" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="J5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+      <c r="K5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D6" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E6" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F6" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="G6" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="J6" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+      <c r="K6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I13" s="2"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I23" s="2"/>
     </row>
-    <row r="25" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I27" s="2"/>
     </row>
   </sheetData>
@@ -1412,31 +2502,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5546875" customWidth="1"/>
-    <col min="2" max="2" width="61.44140625" customWidth="1"/>
-    <col min="3" max="3" width="22.109375" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="2" max="2" width="61.42578125" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="24.44140625" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="35.33203125" customWidth="1"/>
-    <col min="8" max="8" width="15.44140625" customWidth="1"/>
-    <col min="9" max="9" width="25.5546875" customWidth="1"/>
-    <col min="10" max="10" width="22.6640625" customWidth="1"/>
-    <col min="11" max="11" width="15.44140625" customWidth="1"/>
+    <col min="7" max="7" width="35.28515625" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" customWidth="1"/>
+    <col min="9" max="9" width="25.5703125" customWidth="1"/>
+    <col min="10" max="10" width="22.7109375" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" customWidth="1"/>
     <col min="12" max="12" width="11" customWidth="1"/>
-    <col min="13" max="13" width="17.44140625" customWidth="1"/>
-    <col min="14" max="14" width="11.5546875" customWidth="1"/>
+    <col min="13" max="13" width="17.42578125" customWidth="1"/>
+    <col min="14" max="14" width="24" customWidth="1"/>
+    <col min="15" max="15" width="11.5703125" customWidth="1"/>
+    <col min="19" max="19" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1462,7 +2554,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>8</v>
@@ -1474,422 +2566,473 @@
         <v>10</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S1" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" t="s">
-        <v>160</v>
+        <v>37</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>146</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="F2" t="s">
-        <v>112</v>
+        <v>86</v>
+      </c>
+      <c r="G2" t="s">
+        <v>108</v>
       </c>
       <c r="H2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="I2">
-        <v>8.1260499999999999E-6</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>164</v>
-      </c>
       <c r="K2" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="L2">
-        <v>0.74</v>
+        <v>0.84199999999999997</v>
       </c>
       <c r="M2">
-        <v>0.41299999999999998</v>
+        <v>0.44500000000000001</v>
       </c>
       <c r="N2">
-        <v>0.66600000000000004</v>
+        <v>0.84739151633349574</v>
       </c>
       <c r="O2">
-        <v>0.98399999999999999</v>
+        <v>0.95899999999999996</v>
       </c>
       <c r="P2">
-        <v>0.81499999999999995</v>
+        <v>0.999</v>
       </c>
       <c r="Q2">
-        <v>0.53800000000000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="R2">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="S2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D3" t="s">
         <v>53</v>
       </c>
-      <c r="C3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D3" t="s">
-        <v>65</v>
-      </c>
       <c r="E3" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="F3" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="G3" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="H3" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="K3" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="L3">
-        <v>0.47299999999999998</v>
+        <v>0.88100000000000001</v>
       </c>
       <c r="M3">
-        <v>0.35699999999999998</v>
+        <v>0.54400000000000004</v>
       </c>
       <c r="N3">
-        <v>0.84799999999999998</v>
+        <v>0.89566065333983413</v>
       </c>
       <c r="O3">
-        <v>0.98499999999999999</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="P3">
-        <v>0.78100000000000003</v>
+        <v>0.996</v>
       </c>
       <c r="Q3">
-        <v>0.78200000000000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="R3">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="S3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" t="s">
-        <v>159</v>
+        <v>39</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>146</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="F4" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="G4" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="H4" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="I4">
-        <v>4.0625599999999996E-6</v>
+        <v>0</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="K4" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="L4">
-        <v>0.84699999999999998</v>
+        <v>0.94399999999999995</v>
       </c>
       <c r="M4">
-        <v>0.252</v>
+        <v>0.40200000000000002</v>
       </c>
       <c r="N4">
-        <v>0.87</v>
+        <v>0.82642613359336892</v>
       </c>
       <c r="O4">
-        <v>0.97699999999999998</v>
+        <v>0.86299999999999999</v>
       </c>
       <c r="P4">
-        <v>0.78500000000000003</v>
+        <v>1</v>
       </c>
       <c r="Q4">
         <v>0.91500000000000004</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R4">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="S4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" t="s">
-        <v>159</v>
+        <v>37</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>146</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F5" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="G5" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="H5" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="I5">
-        <v>4.0625599999999996E-6</v>
+        <v>0</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="K5" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="L5">
-        <v>0.84699999999999998</v>
+        <v>0.78500000000000003</v>
       </c>
       <c r="M5">
-        <v>0.252</v>
+        <v>0.27600000000000002</v>
       </c>
       <c r="N5">
-        <v>0.87</v>
+        <v>0.76499268649439289</v>
       </c>
       <c r="O5">
-        <v>0.97699999999999998</v>
+        <v>0.82799999999999996</v>
       </c>
       <c r="P5">
-        <v>0.78500000000000003</v>
+        <v>0.93200000000000005</v>
       </c>
       <c r="Q5">
-        <v>0.91500000000000004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="R5">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="S5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" t="s">
-        <v>162</v>
+        <v>37</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>146</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="F6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="G6" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="H6" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="K6" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.96699999999999997</v>
       </c>
       <c r="M6">
-        <v>0.47599999999999998</v>
+        <v>0.622</v>
       </c>
       <c r="N6">
-        <v>0.93100000000000005</v>
+        <v>0.93369088249634324</v>
       </c>
       <c r="O6">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="P6">
         <v>0.999</v>
       </c>
-      <c r="P6">
-        <v>0.84799999999999998</v>
-      </c>
       <c r="Q6">
-        <v>0.95499999999999996</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="R6">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="S6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E7" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="F7" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="G7" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="H7" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>4.0625599999999996E-6</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="K7" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="L7">
-        <v>0.91300000000000003</v>
+        <v>0.84699999999999998</v>
       </c>
       <c r="M7">
-        <v>0.222</v>
+        <v>0.252</v>
       </c>
       <c r="N7">
-        <v>0.96</v>
+        <v>0.75329107752315938</v>
       </c>
       <c r="O7">
-        <v>0.99199999999999999</v>
+        <v>0.87</v>
       </c>
       <c r="P7">
-        <v>0.82599999999999996</v>
+        <v>0.97699999999999998</v>
       </c>
       <c r="Q7">
-        <v>0.86699999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="R7">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="S7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F8" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G8" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="H8" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="K8" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="L8">
-        <v>0.64500000000000002</v>
+        <v>0.60099999999999998</v>
       </c>
       <c r="M8">
-        <v>0.16400000000000001</v>
+        <v>0.47699999999999998</v>
       </c>
       <c r="N8">
-        <v>0.89900000000000002</v>
+        <v>0.86299366162847391</v>
       </c>
       <c r="O8">
-        <v>0.93400000000000005</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="P8">
-        <v>0.7</v>
+        <v>0.98499999999999999</v>
       </c>
       <c r="Q8">
-        <v>0.80200000000000005</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="R8">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="S8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F9" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="G9" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="H9" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="K9" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="L9">
         <v>0.997</v>
@@ -1898,1052 +3041,1014 @@
         <v>0.251</v>
       </c>
       <c r="N9">
+        <v>0.75280351048269134</v>
+      </c>
+      <c r="O9">
         <v>0.91800000000000004</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>0.998</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>0.79400000000000004</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>0.86299999999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>161</v>
+      <c r="C10" t="s">
+        <v>146</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F10" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G10" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="H10" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="K10" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="L10">
-        <v>0.88100000000000001</v>
+        <v>0.80300000000000005</v>
       </c>
       <c r="M10">
-        <v>0.54400000000000004</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="N10">
-        <v>0.90800000000000003</v>
+        <v>0.91077523159434415</v>
       </c>
       <c r="O10">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="P10">
         <v>0.996</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="R10">
         <v>0.94099999999999995</v>
       </c>
-      <c r="Q10">
-        <v>0.90900000000000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>161</v>
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>144</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G11" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="H11" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="K11" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="L11">
-        <v>0.94399999999999995</v>
+        <v>0.88300000000000001</v>
       </c>
       <c r="M11">
-        <v>0.40200000000000002</v>
+        <v>0.434</v>
       </c>
       <c r="N11">
-        <v>0.86299999999999999</v>
+        <v>0.84202827888834697</v>
       </c>
       <c r="O11">
-        <v>1</v>
+        <v>0.98299999999999998</v>
       </c>
       <c r="P11">
-        <v>0.91500000000000004</v>
+        <v>0.998</v>
       </c>
       <c r="Q11">
-        <v>0.94499999999999995</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="R11">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="S11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E12" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F12" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="G12" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="H12" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="K12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L12">
-        <v>0.80300000000000005</v>
+        <v>0.94199999999999995</v>
       </c>
       <c r="M12">
-        <v>0.57499999999999996</v>
+        <v>0.40200000000000002</v>
       </c>
       <c r="N12">
-        <v>0.96499999999999997</v>
+        <v>0.82642613359336892</v>
       </c>
       <c r="O12">
-        <v>0.996</v>
+        <v>0.93700000000000006</v>
       </c>
       <c r="P12">
-        <v>0.95799999999999996</v>
+        <v>0.997</v>
       </c>
       <c r="Q12">
-        <v>0.94099999999999995</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="R12">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="S12" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>161</v>
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>147</v>
       </c>
       <c r="D13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G13" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="H13" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="K13" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="L13">
-        <v>0.96699999999999997</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.622</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="N13">
-        <v>0.97199999999999998</v>
+        <v>0.86250609458800576</v>
       </c>
       <c r="O13">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="P13">
         <v>0.999</v>
       </c>
-      <c r="P13">
-        <v>0.78500000000000003</v>
-      </c>
       <c r="Q13">
-        <v>0.88600000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="R13">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="S13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E14" t="s">
         <v>78</v>
       </c>
       <c r="F14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G14" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="H14" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>8.1210999999999992E-6</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="K14" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="L14">
-        <v>0.88300000000000001</v>
+        <v>0.85399999999999998</v>
       </c>
       <c r="M14">
-        <v>0.434</v>
+        <v>0.52100000000000002</v>
       </c>
       <c r="N14">
-        <v>0.98299999999999998</v>
+        <v>0.88444661140906866</v>
       </c>
       <c r="O14">
-        <v>0.998</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="P14">
-        <v>0.56499999999999995</v>
+        <v>0.997</v>
       </c>
       <c r="Q14">
-        <v>0.95399999999999996</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="R14">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="S14" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E15" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F15" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="G15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H15" t="s">
+        <v>136</v>
+      </c>
+      <c r="I15">
+        <v>1.2316200000000001E-5</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K15" t="s">
+        <v>159</v>
+      </c>
+      <c r="L15">
+        <v>0.879</v>
+      </c>
+      <c r="M15">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="N15">
+        <v>0.82447586543149665</v>
+      </c>
+      <c r="O15">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>0.95</v>
+      </c>
+      <c r="R15">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="S15" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" t="s">
+        <v>145</v>
+      </c>
+      <c r="D16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" t="s">
+        <v>96</v>
+      </c>
+      <c r="G16" t="s">
+        <v>118</v>
+      </c>
+      <c r="H16" t="s">
+        <v>134</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="K16" t="s">
         <v>148</v>
       </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="K15" t="s">
-        <v>176</v>
-      </c>
-      <c r="L15">
-        <v>0.60099999999999998</v>
-      </c>
-      <c r="M15">
-        <v>0.47699999999999998</v>
-      </c>
-      <c r="N15">
-        <v>0.90800000000000003</v>
-      </c>
-      <c r="O15">
-        <v>0.98499999999999999</v>
-      </c>
-      <c r="P15">
-        <v>0.83799999999999997</v>
-      </c>
-      <c r="Q15">
-        <v>0.94199999999999995</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" t="s">
-        <v>160</v>
-      </c>
-      <c r="D16" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" t="s">
-        <v>88</v>
-      </c>
-      <c r="F16" t="s">
-        <v>113</v>
-      </c>
-      <c r="G16" t="s">
-        <v>120</v>
-      </c>
-      <c r="H16" t="s">
-        <v>153</v>
-      </c>
-      <c r="I16">
-        <v>5.2803899999999998E-5</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="K16" t="s">
-        <v>172</v>
-      </c>
       <c r="L16">
-        <v>0.85299999999999998</v>
+        <v>0.91300000000000003</v>
       </c>
       <c r="M16">
-        <v>0.184</v>
+        <v>0.222</v>
       </c>
       <c r="N16">
-        <v>0.95699999999999996</v>
+        <v>0.73866406630911741</v>
       </c>
       <c r="O16">
-        <v>0.93400000000000005</v>
+        <v>0.96</v>
       </c>
       <c r="P16">
-        <v>0.76</v>
+        <v>0.99199999999999999</v>
       </c>
       <c r="Q16">
-        <v>0.66900000000000004</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="R16">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="S16" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>161</v>
+        <v>48</v>
+      </c>
+      <c r="C17" t="s">
+        <v>145</v>
       </c>
       <c r="D17" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E17" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F17" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H17" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1.21945E-5</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="K17" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="L17">
-        <v>0.78500000000000003</v>
+        <v>0.95</v>
       </c>
       <c r="M17">
-        <v>0.27600000000000002</v>
+        <v>0.504</v>
       </c>
       <c r="N17">
-        <v>0.82799999999999996</v>
+        <v>0.87615797172111154</v>
       </c>
       <c r="O17">
         <v>0.93200000000000005</v>
       </c>
       <c r="P17">
-        <v>0.86899999999999999</v>
+        <v>0.99199999999999999</v>
       </c>
       <c r="Q17">
-        <v>0.89600000000000002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+        <v>0.86599999999999999</v>
+      </c>
+      <c r="R17">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="S17" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s">
+        <v>145</v>
+      </c>
+      <c r="D18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18" t="s">
+        <v>102</v>
+      </c>
+      <c r="H18" t="s">
+        <v>138</v>
+      </c>
+      <c r="I18">
+        <v>8.1260499999999999E-6</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="K18" t="s">
+        <v>148</v>
+      </c>
+      <c r="L18">
+        <v>0.74</v>
+      </c>
+      <c r="M18">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="N18">
+        <v>0.83178937103851769</v>
+      </c>
+      <c r="O18">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="P18">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="Q18">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="R18">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="S18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>32</v>
       </c>
-      <c r="B18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" t="s">
-        <v>160</v>
-      </c>
-      <c r="D18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" t="s">
-        <v>86</v>
-      </c>
-      <c r="F18" t="s">
-        <v>111</v>
-      </c>
-      <c r="G18" t="s">
-        <v>133</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>144</v>
+      </c>
+      <c r="D19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" t="s">
+        <v>91</v>
+      </c>
+      <c r="G19" t="s">
+        <v>113</v>
+      </c>
+      <c r="H19" t="s">
+        <v>130</v>
+      </c>
+      <c r="I19">
+        <v>4.0625599999999996E-6</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="K19" t="s">
+        <v>154</v>
+      </c>
+      <c r="L19">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="M19">
+        <v>0.252</v>
+      </c>
+      <c r="N19">
+        <v>0.75329107752315938</v>
+      </c>
+      <c r="O19">
+        <v>0.87</v>
+      </c>
+      <c r="P19">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="Q19">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="R19">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="S19" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" t="s">
+        <v>145</v>
+      </c>
+      <c r="D20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" t="s">
+        <v>81</v>
+      </c>
+      <c r="F20" t="s">
+        <v>103</v>
+      </c>
+      <c r="G20" t="s">
+        <v>122</v>
+      </c>
+      <c r="H20" t="s">
+        <v>139</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="K20" t="s">
+        <v>148</v>
+      </c>
+      <c r="L20">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="M20">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="N20">
+        <v>0.80448561677230612</v>
+      </c>
+      <c r="O20">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="P20">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="Q20">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="R20">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="S20" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" t="s">
+        <v>145</v>
+      </c>
+      <c r="D21" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" t="s">
+        <v>82</v>
+      </c>
+      <c r="F21" t="s">
+        <v>104</v>
+      </c>
+      <c r="G21" t="s">
+        <v>123</v>
+      </c>
+      <c r="H21" t="s">
         <v>140</v>
       </c>
-      <c r="I18">
-        <v>1.21945E-5</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="K18" t="s">
-        <v>163</v>
-      </c>
-      <c r="L18">
-        <v>0.95</v>
-      </c>
-      <c r="M18">
-        <v>0.504</v>
-      </c>
-      <c r="N18">
-        <v>0.93200000000000005</v>
-      </c>
-      <c r="O18">
-        <v>0.99199999999999999</v>
-      </c>
-      <c r="P18">
-        <v>0.86599999999999999</v>
-      </c>
-      <c r="Q18">
-        <v>0.96799999999999997</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" t="s">
-        <v>161</v>
-      </c>
-      <c r="D19" t="s">
-        <v>67</v>
-      </c>
-      <c r="E19" t="s">
-        <v>92</v>
-      </c>
-      <c r="F19" t="s">
-        <v>117</v>
-      </c>
-      <c r="G19" t="s">
-        <v>136</v>
-      </c>
-      <c r="H19" t="s">
-        <v>157</v>
-      </c>
-      <c r="I19">
-        <v>4.0768100000000004E-6</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="K19" t="s">
-        <v>163</v>
-      </c>
-      <c r="L19">
-        <v>0.83</v>
-      </c>
-      <c r="M19">
-        <v>0.47399999999999998</v>
-      </c>
-      <c r="N19">
-        <v>0.94099999999999995</v>
-      </c>
-      <c r="O19">
-        <v>1</v>
-      </c>
-      <c r="P19">
-        <v>0.84399999999999997</v>
-      </c>
-      <c r="Q19">
-        <v>0.92400000000000004</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" t="s">
-        <v>161</v>
-      </c>
-      <c r="D20" t="s">
-        <v>63</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="K21" t="s">
+        <v>148</v>
+      </c>
+      <c r="L21">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="M21">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="N21">
+        <v>0.81911262798634799</v>
+      </c>
+      <c r="O21">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="P21">
+        <v>0.998</v>
+      </c>
+      <c r="Q21">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="R21">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="S21" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" t="s">
+        <v>145</v>
+      </c>
+      <c r="D22" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" t="s">
         <v>83</v>
       </c>
-      <c r="F20" t="s">
-        <v>108</v>
-      </c>
-      <c r="G20" t="s">
-        <v>130</v>
-      </c>
-      <c r="H20" t="s">
-        <v>149</v>
-      </c>
-      <c r="I20">
-        <v>1.2316200000000001E-5</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="K20" t="s">
-        <v>177</v>
-      </c>
-      <c r="L20">
-        <v>0.879</v>
-      </c>
-      <c r="M20">
-        <v>0.39800000000000002</v>
-      </c>
-      <c r="N20">
-        <v>0.99399999999999999</v>
-      </c>
-      <c r="O20">
-        <v>1</v>
-      </c>
-      <c r="P20">
-        <v>0.95</v>
-      </c>
-      <c r="Q20">
-        <v>0.98799999999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" t="s">
-        <v>161</v>
-      </c>
-      <c r="D21" t="s">
-        <v>63</v>
-      </c>
-      <c r="E21" t="s">
-        <v>84</v>
-      </c>
-      <c r="F21" t="s">
-        <v>109</v>
-      </c>
-      <c r="G21" t="s">
-        <v>131</v>
-      </c>
-      <c r="H21" t="s">
-        <v>150</v>
-      </c>
-      <c r="I21">
-        <v>8.1210999999999992E-6</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="K21" t="s">
-        <v>178</v>
-      </c>
-      <c r="L21">
-        <v>0.85399999999999998</v>
-      </c>
-      <c r="M21">
-        <v>0.52100000000000002</v>
-      </c>
-      <c r="N21">
-        <v>0.90800000000000003</v>
-      </c>
-      <c r="O21">
-        <v>0.997</v>
-      </c>
-      <c r="P21">
-        <v>0.88500000000000001</v>
-      </c>
-      <c r="Q21">
-        <v>0.82899999999999996</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" t="s">
-        <v>160</v>
-      </c>
-      <c r="D22" t="s">
-        <v>66</v>
-      </c>
-      <c r="E22" t="s">
-        <v>90</v>
-      </c>
       <c r="F22" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="G22" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="H22" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="K22" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="L22">
-        <v>0.89700000000000002</v>
+        <v>0.752</v>
       </c>
       <c r="M22">
-        <v>0.38700000000000001</v>
+        <v>0.49</v>
       </c>
       <c r="N22">
-        <v>0.96199999999999997</v>
+        <v>0.86933203315455865</v>
       </c>
       <c r="O22">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="P22">
         <v>0.998</v>
       </c>
-      <c r="P22">
-        <v>0.81499999999999995</v>
-      </c>
       <c r="Q22">
-        <v>0.86799999999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="R22">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="S22" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="D23" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E23" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F23" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="G23" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="H23" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>4.0768100000000004E-6</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="K23" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="L23">
-        <v>0.752</v>
+        <v>0.83</v>
       </c>
       <c r="M23">
-        <v>0.49</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="N23">
-        <v>0.96299999999999997</v>
+        <v>0.86153096050706957</v>
       </c>
       <c r="O23">
-        <v>0.998</v>
+        <v>0.94099999999999995</v>
       </c>
       <c r="P23">
-        <v>0.82099999999999995</v>
+        <v>1</v>
       </c>
       <c r="Q23">
-        <v>0.85099999999999998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="R23">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="S23" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C24" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="D24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E24" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F24" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="G24" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H24" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="K24" t="s">
-        <v>179</v>
+        <v>148</v>
       </c>
       <c r="L24">
-        <v>0.94199999999999995</v>
+        <v>0.89300000000000002</v>
       </c>
       <c r="M24">
-        <v>0.40200000000000002</v>
+        <v>0.161</v>
       </c>
       <c r="N24">
-        <v>0.93700000000000006</v>
+        <v>0.70892247684056553</v>
       </c>
       <c r="O24">
-        <v>0.997</v>
+        <v>0.9</v>
       </c>
       <c r="P24">
-        <v>0.77800000000000002</v>
+        <v>0.99199999999999999</v>
       </c>
       <c r="Q24">
-        <v>0.92600000000000005</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" t="s">
-        <v>160</v>
-      </c>
-      <c r="D25" t="s">
-        <v>64</v>
-      </c>
-      <c r="E25" t="s">
-        <v>85</v>
-      </c>
-      <c r="F25" t="s">
-        <v>110</v>
-      </c>
-      <c r="G25" t="s">
-        <v>132</v>
-      </c>
-      <c r="H25" t="s">
-        <v>151</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="K25" t="s">
-        <v>163</v>
-      </c>
-      <c r="L25">
-        <v>0.83199999999999996</v>
-      </c>
-      <c r="M25">
-        <v>0.20599999999999999</v>
-      </c>
-      <c r="N25">
-        <v>0.85299999999999998</v>
-      </c>
-      <c r="O25">
-        <v>0.999</v>
-      </c>
-      <c r="P25">
-        <v>0.73299999999999998</v>
-      </c>
-      <c r="Q25">
-        <v>0.69399999999999995</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" t="s">
-        <v>160</v>
-      </c>
-      <c r="D26" t="s">
-        <v>68</v>
-      </c>
-      <c r="E26" t="s">
-        <v>93</v>
-      </c>
-      <c r="F26" t="s">
-        <v>118</v>
-      </c>
-      <c r="G26" t="s">
-        <v>137</v>
-      </c>
-      <c r="H26" t="s">
-        <v>158</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="K26" t="s">
-        <v>163</v>
-      </c>
-      <c r="L26">
-        <v>0.89300000000000002</v>
-      </c>
-      <c r="M26">
-        <v>0.161</v>
-      </c>
-      <c r="N26">
-        <v>0.9</v>
-      </c>
-      <c r="O26">
-        <v>0.99199999999999999</v>
-      </c>
-      <c r="P26">
         <v>0.57399999999999995</v>
       </c>
-      <c r="Q26">
+      <c r="R24">
         <v>0.92900000000000005</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="D27" t="s">
-        <v>55</v>
-      </c>
-      <c r="E27" t="s">
-        <v>69</v>
-      </c>
-      <c r="F27" t="s">
-        <v>94</v>
-      </c>
-      <c r="G27" t="s">
-        <v>119</v>
-      </c>
-      <c r="H27" t="s">
-        <v>138</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="K27" t="s">
-        <v>163</v>
-      </c>
-      <c r="L27">
-        <v>0.84199999999999997</v>
-      </c>
-      <c r="M27">
-        <v>0.44500000000000001</v>
-      </c>
-      <c r="N27">
-        <v>0.95899999999999996</v>
-      </c>
-      <c r="O27">
-        <v>0.999</v>
-      </c>
-      <c r="P27">
-        <v>0.89700000000000002</v>
-      </c>
-      <c r="Q27">
-        <v>0.96899999999999997</v>
+      <c r="S24" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P27">
-    <sortCondition ref="D2:D27"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S24">
+    <sortCondition ref="A2:A24"/>
   </sortState>
-  <conditionalFormatting sqref="L1:L1048576">
-    <cfRule type="cellIs" dxfId="18" priority="17" operator="greaterThan">
+  <conditionalFormatting sqref="L28:L1048576 L1:L24">
+    <cfRule type="cellIs" dxfId="28" priority="24" operator="greaterThan">
       <formula>0.868</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="between">
+    <cfRule type="cellIs" dxfId="27" priority="25" operator="between">
       <formula>0.559</formula>
       <formula>0.867</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="26" operator="lessThan">
       <formula>0.558</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1048576">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="M28:M1048576 M1:M24">
+    <cfRule type="cellIs" dxfId="25" priority="8" operator="greaterThan">
       <formula>0.267</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="24" priority="9" operator="between">
       <formula>0.014</formula>
       <formula>0.266</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="10" operator="lessThan">
+      <formula>0.013</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O28:O1048576 O1:O24">
+    <cfRule type="cellIs" dxfId="22" priority="11" operator="greaterThan">
+      <formula>0.814</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="12" operator="between">
+      <formula>0.61</formula>
+      <formula>0.813</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="13" operator="lessThan">
+      <formula>0.609</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P28:P1048576 P1:P24">
+    <cfRule type="cellIs" dxfId="19" priority="14" operator="greaterThan">
+      <formula>0.975</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="15" operator="between">
+      <formula>0.852</formula>
+      <formula>0.974</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="16" operator="lessThan">
+      <formula>0.851</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q28:Q1048576 Q1:Q24">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="between">
+      <formula>0.369</formula>
+      <formula>0.795</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="18" operator="greaterThan">
+      <formula>0.796</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="19" operator="between">
+      <formula>0.369</formula>
+      <formula>0.765</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="20" operator="lessThan">
+      <formula>0.368</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R28:R1048576 R1:R24">
+    <cfRule type="cellIs" dxfId="12" priority="21" operator="greaterThan">
+      <formula>0.906</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="22" operator="between">
+      <formula>0.464</formula>
+      <formula>0.905</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="23" operator="lessThan">
+      <formula>0.463</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N1">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="greaterThan">
+      <formula>0.267</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="between">
+      <formula>0.014</formula>
+      <formula>0.266</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="lessThan">
       <formula>0.013</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:N1048576">
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="greaterThan">
-      <formula>0.814</formula>
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
+      <formula>0.637</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="between">
-      <formula>0.61</formula>
-      <formula>0.813</formula>
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="greaterThan">
+      <formula>0.761</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="lessThan">
-      <formula>0.609</formula>
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="between">
+      <formula>0.637</formula>
+      <formula>0.761</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1048576">
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="greaterThan">
-      <formula>0.975</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="between">
-      <formula>0.852</formula>
-      <formula>0.974</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="9" operator="lessThan">
-      <formula>0.851</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P1:P1048576">
-    <cfRule type="cellIs" dxfId="6" priority="10" operator="between">
-      <formula>0.369</formula>
-      <formula>0.795</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="11" operator="greaterThan">
-      <formula>0.796</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="12" operator="between">
-      <formula>0.369</formula>
-      <formula>0.765</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="13" operator="lessThan">
-      <formula>0.368</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q1:Q1048576">
-    <cfRule type="cellIs" dxfId="2" priority="14" operator="greaterThan">
-      <formula>0.906</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="15" operator="between">
-      <formula>0.464</formula>
-      <formula>0.905</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="16" operator="lessThan">
-      <formula>0.463</formula>
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
+      <formula>0.637</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>